--- a/results/stock_std.xlsx
+++ b/results/stock_std.xlsx
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>350006400</v>
+        <v>461365650</v>
       </c>
       <c r="G2">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H2">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I2">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -470,22 +470,22 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>418328770</v>
+        <v>604208270</v>
       </c>
       <c r="G3">
-        <v>10.6675</v>
+        <v>10.1709</v>
       </c>
       <c r="H3">
-        <v>0.008394789999999999</v>
+        <v>0.00757398</v>
       </c>
       <c r="I3">
-        <v>2.12288</v>
+        <v>2.4167</v>
       </c>
       <c r="J3">
-        <v>302932050</v>
+        <v>292590280</v>
       </c>
       <c r="K3">
-        <v>2776147.9</v>
+        <v>2820502.3</v>
       </c>
     </row>
     <row r="4">
@@ -507,22 +507,22 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>481827.63</v>
+        <v>31177787</v>
       </c>
       <c r="G4">
-        <v>9.82769</v>
+        <v>9.19425</v>
       </c>
       <c r="H4">
-        <v>0.00600587</v>
+        <v>0.0048362</v>
       </c>
       <c r="I4">
-        <v>1.34725</v>
+        <v>1.27546</v>
       </c>
       <c r="J4">
-        <v>309187.91</v>
+        <v>10051069</v>
       </c>
       <c r="K4">
-        <v>1864.3892</v>
+        <v>49561.968</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>231645.94</v>
+        <v>1464939.9</v>
       </c>
       <c r="G5">
-        <v>10.5969</v>
+        <v>10.7517</v>
       </c>
       <c r="H5">
-        <v>0.00766435</v>
+        <v>0.008109750000000001</v>
       </c>
       <c r="I5">
-        <v>1.4112</v>
+        <v>1.51179</v>
       </c>
       <c r="J5">
-        <v>163301.21</v>
+        <v>763195.17</v>
       </c>
       <c r="K5">
-        <v>1282.347</v>
+        <v>6665.8438</v>
       </c>
     </row>
     <row r="6">
@@ -581,16 +581,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>526402960</v>
+        <v>351433930</v>
       </c>
       <c r="G6">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H6">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I6">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>496577490</v>
+        <v>668178150</v>
       </c>
       <c r="G7">
-        <v>10.4788</v>
+        <v>9.752219999999999</v>
       </c>
       <c r="H7">
-        <v>0.008258110000000001</v>
+        <v>0.00722026</v>
       </c>
       <c r="I7">
-        <v>2.40574</v>
+        <v>2.84093</v>
       </c>
       <c r="J7">
-        <v>186239840</v>
+        <v>175532300</v>
       </c>
       <c r="K7">
-        <v>1698752.9</v>
+        <v>1789731.5</v>
       </c>
     </row>
     <row r="8">
@@ -655,22 +655,22 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>61064305</v>
+        <v>96104254</v>
       </c>
       <c r="G8">
-        <v>11.1217</v>
+        <v>11.1475</v>
       </c>
       <c r="H8">
-        <v>0.009435290000000001</v>
+        <v>0.009917459999999999</v>
       </c>
       <c r="I8">
-        <v>2.0307</v>
+        <v>2.38902</v>
       </c>
       <c r="J8">
-        <v>24245045</v>
+        <v>33304435</v>
       </c>
       <c r="K8">
-        <v>242661.67</v>
+        <v>391393.74</v>
       </c>
     </row>
     <row r="9">
@@ -692,22 +692,22 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>107329.01</v>
+        <v>5634009.5</v>
       </c>
       <c r="G9">
-        <v>10.7007</v>
+        <v>10.6597</v>
       </c>
       <c r="H9">
-        <v>0.00788605</v>
+        <v>0.007817330000000001</v>
       </c>
       <c r="I9">
-        <v>1.39477</v>
+        <v>1.43275</v>
       </c>
       <c r="J9">
-        <v>40448.106</v>
+        <v>1688597.9</v>
       </c>
       <c r="K9">
-        <v>320.8695</v>
+        <v>13513.901</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>188536470</v>
+        <v>204728300</v>
       </c>
       <c r="G10">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H10">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I10">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -766,22 +766,22 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>302976480</v>
+        <v>410839640</v>
       </c>
       <c r="G11">
-        <v>10.2206</v>
+        <v>9.21721</v>
       </c>
       <c r="H11">
-        <v>0.00767563</v>
+        <v>0.00596741</v>
       </c>
       <c r="I11">
-        <v>2.40151</v>
+        <v>2.6385</v>
       </c>
       <c r="J11">
-        <v>310631400</v>
+        <v>291459560</v>
       </c>
       <c r="K11">
-        <v>2791299.8</v>
+        <v>2824713.2</v>
       </c>
     </row>
     <row r="12">
@@ -803,22 +803,22 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>25984480</v>
+        <v>58085358</v>
       </c>
       <c r="G12">
-        <v>10.2958</v>
+        <v>9.50658</v>
       </c>
       <c r="H12">
-        <v>0.00769233</v>
+        <v>0.00621206</v>
       </c>
       <c r="I12">
-        <v>2.24729</v>
+        <v>2.32732</v>
       </c>
       <c r="J12">
-        <v>26736962</v>
+        <v>42496811</v>
       </c>
       <c r="K12">
-        <v>237525.49</v>
+        <v>415913.29</v>
       </c>
     </row>
     <row r="13">
@@ -840,22 +840,22 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>2857340.4</v>
+        <v>5869128.7</v>
       </c>
       <c r="G13">
-        <v>11.0712</v>
+        <v>10.9955</v>
       </c>
       <c r="H13">
-        <v>0.00924496</v>
+        <v>0.00932562</v>
       </c>
       <c r="I13">
-        <v>1.96478</v>
+        <v>2.19302</v>
       </c>
       <c r="J13">
-        <v>3233783.8</v>
+        <v>6645782.4</v>
       </c>
       <c r="K13">
-        <v>32861.871</v>
+        <v>81785.048</v>
       </c>
     </row>
     <row r="14">
@@ -877,16 +877,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>56328512</v>
+        <v>52595142</v>
       </c>
       <c r="G14">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H14">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I14">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -914,22 +914,22 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>208355060</v>
+        <v>316425160</v>
       </c>
       <c r="G15">
-        <v>10.6059</v>
+        <v>9.931570000000001</v>
       </c>
       <c r="H15">
-        <v>0.00834523</v>
+        <v>0.00734054</v>
       </c>
       <c r="I15">
-        <v>2.21592</v>
+        <v>2.64914</v>
       </c>
       <c r="J15">
-        <v>122131260</v>
+        <v>118386690</v>
       </c>
       <c r="K15">
-        <v>1116032.2</v>
+        <v>1173837.2</v>
       </c>
     </row>
     <row r="16">
@@ -951,22 +951,22 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>39696999</v>
+        <v>66062727</v>
       </c>
       <c r="G16">
-        <v>10.6004</v>
+        <v>10.106</v>
       </c>
       <c r="H16">
-        <v>0.00839877</v>
+        <v>0.00753773</v>
       </c>
       <c r="I16">
-        <v>2.26089</v>
+        <v>2.45116</v>
       </c>
       <c r="J16">
-        <v>23297354</v>
+        <v>25137715</v>
       </c>
       <c r="K16">
-        <v>217259.1</v>
+        <v>254518.54</v>
       </c>
     </row>
     <row r="17">
@@ -988,22 +988,22 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>3745125.4</v>
+        <v>9829942.199999999</v>
       </c>
       <c r="G17">
-        <v>10.7781</v>
+        <v>10.6155</v>
       </c>
       <c r="H17">
-        <v>0.008663570000000001</v>
+        <v>0.00840315</v>
       </c>
       <c r="I17">
-        <v>2.10149</v>
+        <v>2.18189</v>
       </c>
       <c r="J17">
-        <v>2232834.7</v>
+        <v>4137049.7</v>
       </c>
       <c r="K17">
-        <v>21128.801</v>
+        <v>43189.303</v>
       </c>
     </row>
     <row r="18">
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>90838415</v>
+        <v>153813560</v>
       </c>
       <c r="G18">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H18">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I18">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>199235090</v>
+        <v>307527700</v>
       </c>
       <c r="G19">
-        <v>10.5549</v>
+        <v>9.93547</v>
       </c>
       <c r="H19">
-        <v>0.0084072</v>
+        <v>0.00763265</v>
       </c>
       <c r="I19">
-        <v>2.38222</v>
+        <v>2.87264</v>
       </c>
       <c r="J19">
-        <v>67578125</v>
+        <v>63435692</v>
       </c>
       <c r="K19">
-        <v>623318.3199999999</v>
+        <v>663987.76</v>
       </c>
     </row>
     <row r="20">
@@ -1099,22 +1099,22 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>33873273</v>
+        <v>59324698</v>
       </c>
       <c r="G20">
-        <v>11.0898</v>
+        <v>11.0233</v>
       </c>
       <c r="H20">
-        <v>0.00943241</v>
+        <v>0.00982011</v>
       </c>
       <c r="I20">
-        <v>2.10661</v>
+        <v>2.55809</v>
       </c>
       <c r="J20">
-        <v>12045584</v>
+        <v>14994873</v>
       </c>
       <c r="K20">
-        <v>121219.69</v>
+        <v>180236.43</v>
       </c>
     </row>
     <row r="21">
@@ -1136,22 +1136,22 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>7059875.9</v>
+        <v>14029688</v>
       </c>
       <c r="G21">
-        <v>11.0923</v>
+        <v>11.311</v>
       </c>
       <c r="H21">
-        <v>0.009466520000000001</v>
+        <v>0.0103197</v>
       </c>
       <c r="I21">
-        <v>2.11774</v>
+        <v>2.31843</v>
       </c>
       <c r="J21">
-        <v>2512087</v>
+        <v>3705230.1</v>
       </c>
       <c r="K21">
-        <v>25544.363</v>
+        <v>44983.532</v>
       </c>
     </row>
     <row r="22">
@@ -1173,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>132221670</v>
+        <v>147934570</v>
       </c>
       <c r="G22">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H22">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I22">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>144865310</v>
+        <v>225388390</v>
       </c>
       <c r="G23">
-        <v>10.2382</v>
+        <v>9.23007</v>
       </c>
       <c r="H23">
-        <v>0.00768429</v>
+        <v>0.0060968</v>
       </c>
       <c r="I23">
-        <v>2.37513</v>
+        <v>2.72731</v>
       </c>
       <c r="J23">
-        <v>186664170</v>
+        <v>171918150</v>
       </c>
       <c r="K23">
-        <v>1707338.1</v>
+        <v>1768653</v>
       </c>
     </row>
     <row r="24">
@@ -1247,22 +1247,22 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>18621789</v>
+        <v>36429992</v>
       </c>
       <c r="G24">
-        <v>10.6963</v>
+        <v>10.1717</v>
       </c>
       <c r="H24">
-        <v>0.008610380000000001</v>
+        <v>0.007822040000000001</v>
       </c>
       <c r="I24">
-        <v>2.24761</v>
+        <v>2.56295</v>
       </c>
       <c r="J24">
-        <v>25612691</v>
+        <v>36088674</v>
       </c>
       <c r="K24">
-        <v>258532.83</v>
+        <v>446219.29</v>
       </c>
     </row>
     <row r="25">
@@ -1284,22 +1284,22 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>3621076.2</v>
+        <v>7055553.6</v>
       </c>
       <c r="G25">
-        <v>11.2718</v>
+        <v>11.4004</v>
       </c>
       <c r="H25">
-        <v>0.0098149</v>
+        <v>0.0105812</v>
       </c>
       <c r="I25">
-        <v>2.00643</v>
+        <v>2.33368</v>
       </c>
       <c r="J25">
-        <v>5379391.3</v>
+        <v>9649434.1</v>
       </c>
       <c r="K25">
-        <v>59623.346</v>
+        <v>139322.5</v>
       </c>
     </row>
     <row r="26">
@@ -1321,16 +1321,16 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>225437960</v>
+        <v>267640160</v>
       </c>
       <c r="G26">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H26">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I26">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1358,22 +1358,22 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>412687470</v>
+        <v>609247690</v>
       </c>
       <c r="G27">
-        <v>10.6921</v>
+        <v>10.2785</v>
       </c>
       <c r="H27">
-        <v>0.008738879999999999</v>
+        <v>0.008385800000000001</v>
       </c>
       <c r="I27">
-        <v>2.38809</v>
+        <v>2.88277</v>
       </c>
       <c r="J27">
-        <v>6292460.3</v>
+        <v>6172758.5</v>
       </c>
       <c r="K27">
-        <v>58810.937</v>
+        <v>66112.806</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>35711845</v>
+        <v>57365017</v>
       </c>
       <c r="G28">
-        <v>10.9042</v>
+        <v>10.7287</v>
       </c>
       <c r="H28">
-        <v>0.00909973</v>
+        <v>0.00917481</v>
       </c>
       <c r="I28">
-        <v>2.23126</v>
+        <v>2.62117</v>
       </c>
       <c r="J28">
-        <v>552900.13</v>
+        <v>620415.46</v>
       </c>
       <c r="K28">
-        <v>5324.2336</v>
+        <v>6954.8682</v>
       </c>
     </row>
     <row r="29">
@@ -1432,22 +1432,22 @@
         <v>3</v>
       </c>
       <c r="F29">
-        <v>5460556.5</v>
+        <v>10906258</v>
       </c>
       <c r="G29">
-        <v>11.4098</v>
+        <v>11.7868</v>
       </c>
       <c r="H29">
-        <v>0.0102779</v>
+        <v>0.01189</v>
       </c>
       <c r="I29">
-        <v>2.09013</v>
+        <v>2.47792</v>
       </c>
       <c r="J29">
-        <v>87855.084</v>
+        <v>140041.53</v>
       </c>
       <c r="K29">
-        <v>945.09856</v>
+        <v>1888.6656</v>
       </c>
     </row>
     <row r="30">
@@ -1469,16 +1469,16 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>286793520</v>
+        <v>96155157</v>
       </c>
       <c r="G30">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H30">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I30">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1506,22 +1506,22 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1034879800</v>
+        <v>1334242400</v>
       </c>
       <c r="G31">
-        <v>10.7458</v>
+        <v>10.3495</v>
       </c>
       <c r="H31">
-        <v>0.008751119999999999</v>
+        <v>0.008345419999999999</v>
       </c>
       <c r="I31">
-        <v>2.28372</v>
+        <v>2.73147</v>
       </c>
       <c r="J31">
-        <v>118898390</v>
+        <v>114231220</v>
       </c>
       <c r="K31">
-        <v>1109716.8</v>
+        <v>1192961.8</v>
       </c>
     </row>
     <row r="32">
@@ -1543,22 +1543,22 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>97825943</v>
+        <v>147717120</v>
       </c>
       <c r="G32">
-        <v>11.3018</v>
+        <v>11.6444</v>
       </c>
       <c r="H32">
-        <v>0.0101423</v>
+        <v>0.0118341</v>
       </c>
       <c r="I32">
-        <v>2.2425</v>
+        <v>2.77224</v>
       </c>
       <c r="J32">
-        <v>11773676</v>
+        <v>15734254</v>
       </c>
       <c r="K32">
-        <v>127049.26</v>
+        <v>221739.62</v>
       </c>
     </row>
     <row r="33">
@@ -1580,22 +1580,22 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>9733023.300000001</v>
+        <v>16381836</v>
       </c>
       <c r="G33">
-        <v>11.562</v>
+        <v>12.2391</v>
       </c>
       <c r="H33">
-        <v>0.0107003</v>
+        <v>0.0133788</v>
       </c>
       <c r="I33">
-        <v>2.08943</v>
+        <v>2.53513</v>
       </c>
       <c r="J33">
-        <v>1195192.4</v>
+        <v>1901782.6</v>
       </c>
       <c r="K33">
-        <v>13463.123</v>
+        <v>28777.881</v>
       </c>
     </row>
     <row r="34">
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>427611960</v>
+        <v>421448010</v>
       </c>
       <c r="G34">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H34">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I34">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>534799150</v>
+        <v>901213000</v>
       </c>
       <c r="G35">
-        <v>10.8746</v>
+        <v>10.5206</v>
       </c>
       <c r="H35">
-        <v>0.00881438</v>
+        <v>0.00836601</v>
       </c>
       <c r="I35">
-        <v>2.03908</v>
+        <v>2.42206</v>
       </c>
       <c r="J35">
-        <v>100551760</v>
+        <v>101057740</v>
       </c>
       <c r="K35">
-        <v>928914.46</v>
+        <v>993897.77</v>
       </c>
     </row>
     <row r="36">
@@ -1691,22 +1691,22 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>155409770</v>
+        <v>226686020</v>
       </c>
       <c r="G36">
-        <v>11.1647</v>
+        <v>11.2335</v>
       </c>
       <c r="H36">
-        <v>0.009694960000000001</v>
+        <v>0.0104731</v>
       </c>
       <c r="I36">
-        <v>2.16912</v>
+        <v>2.63038</v>
       </c>
       <c r="J36">
-        <v>30032641</v>
+        <v>28892417</v>
       </c>
       <c r="K36">
-        <v>309366.17</v>
+        <v>362733.13</v>
       </c>
     </row>
     <row r="37">
@@ -1728,22 +1728,22 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <v>15681018</v>
+        <v>24850655</v>
       </c>
       <c r="G37">
-        <v>11.6929</v>
+        <v>12.4476</v>
       </c>
       <c r="H37">
-        <v>0.0111002</v>
+        <v>0.0142477</v>
       </c>
       <c r="I37">
-        <v>2.11295</v>
+        <v>2.65283</v>
       </c>
       <c r="J37">
-        <v>3172226.7</v>
+        <v>3806474.4</v>
       </c>
       <c r="K37">
-        <v>37285.158</v>
+        <v>61912.875</v>
       </c>
     </row>
     <row r="38">
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>425439530</v>
+        <v>573328910</v>
       </c>
       <c r="G38">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H38">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I38">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1802,22 +1802,22 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>869763780</v>
+        <v>1069401500</v>
       </c>
       <c r="G39">
-        <v>10.519</v>
+        <v>9.921189999999999</v>
       </c>
       <c r="H39">
-        <v>0.008324079999999999</v>
+        <v>0.00744306</v>
       </c>
       <c r="I39">
-        <v>2.38241</v>
+        <v>2.74952</v>
       </c>
       <c r="J39">
-        <v>363471130</v>
+        <v>332973860</v>
       </c>
       <c r="K39">
-        <v>3341421.1</v>
+        <v>3385037.1</v>
       </c>
     </row>
     <row r="40">
@@ -1839,22 +1839,22 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>56846922</v>
+        <v>120588580</v>
       </c>
       <c r="G40">
-        <v>11.2166</v>
+        <v>11.2967</v>
       </c>
       <c r="H40">
-        <v>0.00962207</v>
+        <v>0.0103456</v>
       </c>
       <c r="I40">
-        <v>1.96947</v>
+        <v>2.41173</v>
       </c>
       <c r="J40">
-        <v>25301135</v>
+        <v>49638334</v>
       </c>
       <c r="K40">
-        <v>257328.23</v>
+        <v>610358.34</v>
       </c>
     </row>
     <row r="41">
@@ -1876,22 +1876,22 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>17711188</v>
+        <v>30830397</v>
       </c>
       <c r="G41">
-        <v>11.4779</v>
+        <v>11.95</v>
       </c>
       <c r="H41">
-        <v>0.0104408</v>
+        <v>0.0124827</v>
       </c>
       <c r="I41">
-        <v>2.06865</v>
+        <v>2.54831</v>
       </c>
       <c r="J41">
-        <v>8114211.2</v>
+        <v>14274282</v>
       </c>
       <c r="K41">
-        <v>90727.33500000001</v>
+        <v>214116.43</v>
       </c>
     </row>
     <row r="42">
@@ -1913,16 +1913,16 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>81629254</v>
+        <v>80837282</v>
       </c>
       <c r="G42">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H42">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I42">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>263353890</v>
+        <v>430054250</v>
       </c>
       <c r="G43">
-        <v>10.3878</v>
+        <v>9.61505</v>
       </c>
       <c r="H43">
-        <v>0.008008329999999999</v>
+        <v>0.006844</v>
       </c>
       <c r="I43">
-        <v>2.36772</v>
+        <v>2.75576</v>
       </c>
       <c r="J43">
-        <v>114121500</v>
+        <v>108726410</v>
       </c>
       <c r="K43">
-        <v>1011063.3</v>
+        <v>1047595.3</v>
       </c>
     </row>
     <row r="44">
@@ -1987,22 +1987,22 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>46142075</v>
+        <v>94577408</v>
       </c>
       <c r="G44">
-        <v>10.3678</v>
+        <v>9.767390000000001</v>
       </c>
       <c r="H44">
-        <v>0.00784116</v>
+        <v>0.00672872</v>
       </c>
       <c r="I44">
-        <v>2.23811</v>
+        <v>2.35216</v>
       </c>
       <c r="J44">
-        <v>19897609</v>
+        <v>23848774</v>
       </c>
       <c r="K44">
-        <v>171206.1</v>
+        <v>211516.92</v>
       </c>
     </row>
     <row r="45">
@@ -2024,22 +2024,22 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <v>3469202</v>
+        <v>8840787.6</v>
       </c>
       <c r="G45">
-        <v>11.247</v>
+        <v>11.2114</v>
       </c>
       <c r="H45">
-        <v>0.00966912</v>
+        <v>0.009943520000000001</v>
       </c>
       <c r="I45">
-        <v>1.92933</v>
+        <v>2.23755</v>
       </c>
       <c r="J45">
-        <v>1628668.5</v>
+        <v>3072595.7</v>
       </c>
       <c r="K45">
-        <v>16642.288</v>
+        <v>35892.349</v>
       </c>
     </row>
     <row r="46">
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>49828953</v>
+        <v>66952999</v>
       </c>
       <c r="G46">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H46">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I46">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>301361600</v>
+        <v>516652560</v>
       </c>
       <c r="G47">
-        <v>10.5901</v>
+        <v>10.1078</v>
       </c>
       <c r="H47">
-        <v>0.00847052</v>
+        <v>0.00790215</v>
       </c>
       <c r="I47">
-        <v>2.36512</v>
+        <v>2.8008</v>
       </c>
       <c r="J47">
-        <v>63691450</v>
+        <v>59888714</v>
       </c>
       <c r="K47">
-        <v>584870.71</v>
+        <v>616638.14</v>
       </c>
     </row>
     <row r="48">
@@ -2135,22 +2135,22 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>22969162</v>
+        <v>64566074</v>
       </c>
       <c r="G48">
-        <v>10.5459</v>
+        <v>10.3112</v>
       </c>
       <c r="H48">
-        <v>0.008242660000000001</v>
+        <v>0.00808363</v>
       </c>
       <c r="I48">
-        <v>2.23484</v>
+        <v>2.52886</v>
       </c>
       <c r="J48">
-        <v>4825677.4</v>
+        <v>7622760.3</v>
       </c>
       <c r="K48">
-        <v>42814.92</v>
+        <v>78228.97199999999</v>
       </c>
     </row>
     <row r="49">
@@ -2172,22 +2172,22 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <v>4306732.1</v>
+        <v>14979473</v>
       </c>
       <c r="G49">
-        <v>10.6418</v>
+        <v>10.7539</v>
       </c>
       <c r="H49">
-        <v>0.00832665</v>
+        <v>0.008739749999999999</v>
       </c>
       <c r="I49">
-        <v>2.09021</v>
+        <v>2.19261</v>
       </c>
       <c r="J49">
-        <v>910869.53</v>
+        <v>1916522.7</v>
       </c>
       <c r="K49">
-        <v>8067.1421</v>
+        <v>19531.565</v>
       </c>
     </row>
     <row r="50">
@@ -2209,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>237569630</v>
+        <v>116076120</v>
       </c>
       <c r="G50">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H50">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I50">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2246,22 +2246,22 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>713295890</v>
+        <v>975323150</v>
       </c>
       <c r="G51">
-        <v>10.3789</v>
+        <v>9.83919</v>
       </c>
       <c r="H51">
-        <v>0.007968340000000001</v>
+        <v>0.00728376</v>
       </c>
       <c r="I51">
-        <v>2.34859</v>
+        <v>2.75224</v>
       </c>
       <c r="J51">
-        <v>243091130</v>
+        <v>228488390</v>
       </c>
       <c r="K51">
-        <v>2604347.5</v>
+        <v>2799262.7</v>
       </c>
     </row>
     <row r="52">
@@ -2283,22 +2283,22 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>34977367</v>
+        <v>82055533</v>
       </c>
       <c r="G52">
-        <v>10.6959</v>
+        <v>10.7212</v>
       </c>
       <c r="H52">
-        <v>0.00858478</v>
+        <v>0.00917785</v>
       </c>
       <c r="I52">
-        <v>2.22421</v>
+        <v>2.63357</v>
       </c>
       <c r="J52">
-        <v>12777376</v>
+        <v>24537726</v>
       </c>
       <c r="K52">
-        <v>143696.99</v>
+        <v>342614.03</v>
       </c>
     </row>
     <row r="53">
@@ -2320,22 +2320,22 @@
         <v>3</v>
       </c>
       <c r="F53">
-        <v>3178815</v>
+        <v>12224355</v>
       </c>
       <c r="G53">
-        <v>10.737</v>
+        <v>11.1535</v>
       </c>
       <c r="H53">
-        <v>0.00852469</v>
+        <v>0.00989525</v>
       </c>
       <c r="I53">
-        <v>2.06099</v>
+        <v>2.30702</v>
       </c>
       <c r="J53">
-        <v>1151974.9</v>
+        <v>3994358.6</v>
       </c>
       <c r="K53">
-        <v>12549.055</v>
+        <v>54561.352</v>
       </c>
     </row>
     <row r="54">
@@ -2357,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>521060480</v>
+        <v>495653810</v>
       </c>
       <c r="G54">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H54">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I54">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>750580050</v>
+        <v>789902290</v>
       </c>
       <c r="G55">
-        <v>10.2939</v>
+        <v>9.628690000000001</v>
       </c>
       <c r="H55">
-        <v>0.00775168</v>
+        <v>0.00667206</v>
       </c>
       <c r="I55">
-        <v>2.32303</v>
+        <v>2.58967</v>
       </c>
       <c r="J55">
-        <v>292060180</v>
+        <v>272171410</v>
       </c>
       <c r="K55">
-        <v>3075490.9</v>
+        <v>3184350.7</v>
       </c>
     </row>
     <row r="56">
@@ -2431,22 +2431,22 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>87578543</v>
+        <v>138786090</v>
       </c>
       <c r="G56">
-        <v>10.1953</v>
+        <v>9.93154</v>
       </c>
       <c r="H56">
-        <v>0.00736097</v>
+        <v>0.00702312</v>
       </c>
       <c r="I56">
-        <v>2.13573</v>
+        <v>2.30844</v>
       </c>
       <c r="J56">
-        <v>32332623</v>
+        <v>48728529</v>
       </c>
       <c r="K56">
-        <v>317033.32</v>
+        <v>580596.24</v>
       </c>
     </row>
     <row r="57">
@@ -2468,22 +2468,22 @@
         <v>3</v>
       </c>
       <c r="F57">
-        <v>4434962.7</v>
+        <v>11130323</v>
       </c>
       <c r="G57">
-        <v>10.5361</v>
+        <v>10.7796</v>
       </c>
       <c r="H57">
-        <v>0.007998699999999999</v>
+        <v>0.00884324</v>
       </c>
       <c r="I57">
-        <v>2.00482</v>
+        <v>2.207</v>
       </c>
       <c r="J57">
-        <v>1770962.2</v>
+        <v>5263828.5</v>
       </c>
       <c r="K57">
-        <v>18208.312</v>
+        <v>69812.08500000001</v>
       </c>
     </row>
     <row r="58">
@@ -2505,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>156735430</v>
+        <v>147419210</v>
       </c>
       <c r="G58">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H58">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I58">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2542,22 +2542,22 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>323412230</v>
+        <v>390945090</v>
       </c>
       <c r="G59">
-        <v>10.15</v>
+        <v>9.39573</v>
       </c>
       <c r="H59">
-        <v>0.00747975</v>
+        <v>0.00631249</v>
       </c>
       <c r="I59">
-        <v>2.35929</v>
+        <v>2.65045</v>
       </c>
       <c r="J59">
-        <v>170830560</v>
+        <v>167742510</v>
       </c>
       <c r="K59">
-        <v>1824931.3</v>
+        <v>2058919.7</v>
       </c>
     </row>
     <row r="60">
@@ -2579,22 +2579,22 @@
         <v>2</v>
       </c>
       <c r="F60">
-        <v>104362420</v>
+        <v>117372090</v>
       </c>
       <c r="G60">
-        <v>10.2669</v>
+        <v>9.926500000000001</v>
       </c>
       <c r="H60">
-        <v>0.00750599</v>
+        <v>0.00690754</v>
       </c>
       <c r="I60">
-        <v>2.12675</v>
+        <v>2.21749</v>
       </c>
       <c r="J60">
-        <v>54818684</v>
+        <v>53607448</v>
       </c>
       <c r="K60">
-        <v>560622.05</v>
+        <v>623505.61</v>
       </c>
     </row>
     <row r="61">
@@ -2616,22 +2616,22 @@
         <v>3</v>
       </c>
       <c r="F61">
-        <v>12982688</v>
+        <v>20950210</v>
       </c>
       <c r="G61">
-        <v>10.304</v>
+        <v>10.4194</v>
       </c>
       <c r="H61">
-        <v>0.00741796</v>
+        <v>0.00772098</v>
       </c>
       <c r="I61">
-        <v>1.93948</v>
+        <v>1.9545</v>
       </c>
       <c r="J61">
-        <v>6684069.9</v>
+        <v>10983351</v>
       </c>
       <c r="K61">
-        <v>64905.625</v>
+        <v>127730.42</v>
       </c>
     </row>
     <row r="62">
@@ -2653,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>61298849</v>
+        <v>70324220</v>
       </c>
       <c r="G62">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H62">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I62">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2690,22 +2690,22 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>272144080</v>
+        <v>334700200</v>
       </c>
       <c r="G63">
-        <v>10.2867</v>
+        <v>9.49865</v>
       </c>
       <c r="H63">
-        <v>0.00759915</v>
+        <v>0.00632</v>
       </c>
       <c r="I63">
-        <v>2.19352</v>
+        <v>2.49654</v>
       </c>
       <c r="J63">
-        <v>138307710</v>
+        <v>135048340</v>
       </c>
       <c r="K63">
-        <v>1414131.2</v>
+        <v>1537292.6</v>
       </c>
     </row>
     <row r="64">
@@ -2727,22 +2727,22 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <v>44231381</v>
+        <v>59631694</v>
       </c>
       <c r="G64">
-        <v>10.0916</v>
+        <v>9.67671</v>
       </c>
       <c r="H64">
-        <v>0.00714105</v>
+        <v>0.00637383</v>
       </c>
       <c r="I64">
-        <v>2.13408</v>
+        <v>2.17114</v>
       </c>
       <c r="J64">
-        <v>21119709</v>
+        <v>22833809</v>
       </c>
       <c r="K64">
-        <v>207681.48</v>
+        <v>256387.42</v>
       </c>
     </row>
     <row r="65">
@@ -2764,22 +2764,22 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <v>15794716</v>
+        <v>18460393</v>
       </c>
       <c r="G65">
-        <v>10.3314</v>
+        <v>10.4402</v>
       </c>
       <c r="H65">
-        <v>0.00746105</v>
+        <v>0.00770441</v>
       </c>
       <c r="I65">
-        <v>1.92145</v>
+        <v>1.89507</v>
       </c>
       <c r="J65">
-        <v>7819930.1</v>
+        <v>9365203.5</v>
       </c>
       <c r="K65">
-        <v>75500.82399999999</v>
+        <v>104771.5</v>
       </c>
     </row>
     <row r="66">
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>241303340</v>
+        <v>177764040</v>
       </c>
       <c r="G66">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H66">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I66">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2838,22 +2838,22 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>443713080</v>
+        <v>388681400</v>
       </c>
       <c r="G67">
-        <v>10.1767</v>
+        <v>9.13303</v>
       </c>
       <c r="H67">
-        <v>0.00744154</v>
+        <v>0.00551289</v>
       </c>
       <c r="I67">
-        <v>2.27154</v>
+        <v>2.35307</v>
       </c>
       <c r="J67">
-        <v>235103880</v>
+        <v>226845000</v>
       </c>
       <c r="K67">
-        <v>2434008.9</v>
+        <v>2546143.6</v>
       </c>
     </row>
     <row r="68">
@@ -2875,22 +2875,22 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>27541642</v>
+        <v>39571142</v>
       </c>
       <c r="G68">
-        <v>9.985889999999999</v>
+        <v>9.3262</v>
       </c>
       <c r="H68">
-        <v>0.00678333</v>
+        <v>0.00545563</v>
       </c>
       <c r="I68">
-        <v>1.99492</v>
+        <v>1.88703</v>
       </c>
       <c r="J68">
-        <v>13074235</v>
+        <v>19265909</v>
       </c>
       <c r="K68">
-        <v>116391.1</v>
+        <v>182857.15</v>
       </c>
     </row>
     <row r="69">
@@ -2912,22 +2912,22 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <v>6268072.6</v>
+        <v>8240593.2</v>
       </c>
       <c r="G69">
-        <v>9.979419999999999</v>
+        <v>9.90685</v>
       </c>
       <c r="H69">
-        <v>0.00664335</v>
+        <v>0.00633164</v>
       </c>
       <c r="I69">
-        <v>1.83303</v>
+        <v>1.60785</v>
       </c>
       <c r="J69">
-        <v>2900058</v>
+        <v>4967261.7</v>
       </c>
       <c r="K69">
-        <v>24693.375</v>
+        <v>47004.542</v>
       </c>
     </row>
     <row r="70">
@@ -2949,16 +2949,16 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.0014651884</v>
+        <v>860641.72</v>
       </c>
       <c r="G70">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H70">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I70">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2986,22 +2986,22 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>583726820</v>
+        <v>505497950</v>
       </c>
       <c r="G71">
-        <v>10.8052</v>
+        <v>10.3009</v>
       </c>
       <c r="H71">
-        <v>0.008428359999999999</v>
+        <v>0.00739444</v>
       </c>
       <c r="I71">
-        <v>1.7969</v>
+        <v>1.93403</v>
       </c>
       <c r="J71">
-        <v>263852990</v>
+        <v>265872910</v>
       </c>
       <c r="K71">
-        <v>2660555.2</v>
+        <v>2762285.2</v>
       </c>
     </row>
     <row r="72">
@@ -3023,22 +3023,22 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <v>77292509</v>
+        <v>66354876</v>
       </c>
       <c r="G72">
-        <v>10.4312</v>
+        <v>9.83103</v>
       </c>
       <c r="H72">
-        <v>0.007854710000000001</v>
+        <v>0.00658767</v>
       </c>
       <c r="I72">
-        <v>2.11325</v>
+        <v>2.09949</v>
       </c>
       <c r="J72">
-        <v>32858766</v>
+        <v>29333925</v>
       </c>
       <c r="K72">
-        <v>338792.59</v>
+        <v>313278.83</v>
       </c>
     </row>
     <row r="73">
@@ -3060,22 +3060,22 @@
         <v>3</v>
       </c>
       <c r="F73">
-        <v>6023292</v>
+        <v>7823499.6</v>
       </c>
       <c r="G73">
-        <v>10.371</v>
+        <v>10.3133</v>
       </c>
       <c r="H73">
-        <v>0.0074798</v>
+        <v>0.00727669</v>
       </c>
       <c r="I73">
-        <v>1.84867</v>
+        <v>1.74262</v>
       </c>
       <c r="J73">
-        <v>2424328.4</v>
+        <v>3929247.8</v>
       </c>
       <c r="K73">
-        <v>22434.246</v>
+        <v>39525.293</v>
       </c>
     </row>
     <row r="74">
@@ -3097,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.0010413504</v>
+        <v>38719534</v>
       </c>
       <c r="G74">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H74">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I74">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3134,22 +3134,22 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>959474150</v>
+        <v>746285470</v>
       </c>
       <c r="G75">
-        <v>10.5063</v>
+        <v>9.90592</v>
       </c>
       <c r="H75">
-        <v>0.008202940000000001</v>
+        <v>0.00716108</v>
       </c>
       <c r="I75">
-        <v>2.29874</v>
+        <v>2.53969</v>
       </c>
       <c r="J75">
-        <v>205864720</v>
+        <v>199059630</v>
       </c>
       <c r="K75">
-        <v>2176964.4</v>
+        <v>2275019.3</v>
       </c>
     </row>
     <row r="76">
@@ -3171,22 +3171,22 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <v>112534090</v>
+        <v>83659902</v>
       </c>
       <c r="G76">
-        <v>11.2482</v>
+        <v>11.2548</v>
       </c>
       <c r="H76">
-        <v>0.00948644</v>
+        <v>0.00971693</v>
       </c>
       <c r="I76">
-        <v>1.72945</v>
+        <v>1.9455</v>
       </c>
       <c r="J76">
-        <v>27534377</v>
+        <v>33594865</v>
       </c>
       <c r="K76">
-        <v>297948.51</v>
+        <v>401190.9</v>
       </c>
     </row>
     <row r="77">
@@ -3208,22 +3208,22 @@
         <v>3</v>
       </c>
       <c r="F77">
-        <v>16443508</v>
+        <v>13158024</v>
       </c>
       <c r="G77">
-        <v>10.8448</v>
+        <v>10.8323</v>
       </c>
       <c r="H77">
-        <v>0.00869285</v>
+        <v>0.00869376</v>
       </c>
       <c r="I77">
-        <v>1.96976</v>
+        <v>1.97849</v>
       </c>
       <c r="J77">
-        <v>3717951.9</v>
+        <v>4462550.5</v>
       </c>
       <c r="K77">
-        <v>39300.723</v>
+        <v>51426.464</v>
       </c>
     </row>
     <row r="78">
@@ -3245,16 +3245,16 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1179359400</v>
+        <v>376333540</v>
       </c>
       <c r="G78">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H78">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I78">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>352367280</v>
+        <v>302242160</v>
       </c>
       <c r="G79">
-        <v>10.7218</v>
+        <v>10.0189</v>
       </c>
       <c r="H79">
-        <v>0.008589680000000001</v>
+        <v>0.00767474</v>
       </c>
       <c r="I79">
-        <v>2.18588</v>
+        <v>2.76865</v>
       </c>
       <c r="J79">
-        <v>39172463</v>
+        <v>39964180</v>
       </c>
       <c r="K79">
-        <v>412878.66</v>
+        <v>487907.41</v>
       </c>
     </row>
     <row r="80">
@@ -3319,22 +3319,22 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <v>196468670</v>
+        <v>139432430</v>
       </c>
       <c r="G80">
-        <v>10.9101</v>
+        <v>10.7452</v>
       </c>
       <c r="H80">
-        <v>0.00903905</v>
+        <v>0.008915029999999999</v>
       </c>
       <c r="I80">
-        <v>2.16167</v>
+        <v>2.38887</v>
       </c>
       <c r="J80">
-        <v>22739551</v>
+        <v>21797680</v>
       </c>
       <c r="K80">
-        <v>252161.8</v>
+        <v>269862.89</v>
       </c>
     </row>
     <row r="81">
@@ -3356,22 +3356,22 @@
         <v>3</v>
       </c>
       <c r="F81">
-        <v>25435111</v>
+        <v>15237908</v>
       </c>
       <c r="G81">
-        <v>11.6308</v>
+        <v>12.1119</v>
       </c>
       <c r="H81">
-        <v>0.0105044</v>
+        <v>0.012234</v>
       </c>
       <c r="I81">
-        <v>1.69979</v>
+        <v>1.97805</v>
       </c>
       <c r="J81">
-        <v>3357753</v>
+        <v>3507906.9</v>
       </c>
       <c r="K81">
-        <v>39345.974</v>
+        <v>48536.113</v>
       </c>
     </row>
     <row r="82">
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.00042097891</v>
+        <v>3.4205314e-06</v>
       </c>
       <c r="G82">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H82">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I82">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -3430,22 +3430,22 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>215343000</v>
+        <v>135955940</v>
       </c>
       <c r="G83">
-        <v>10.5076</v>
+        <v>9.587120000000001</v>
       </c>
       <c r="H83">
-        <v>0.008331089999999999</v>
+        <v>0.00665472</v>
       </c>
       <c r="I83">
-        <v>2.40725</v>
+        <v>2.63312</v>
       </c>
       <c r="J83">
-        <v>63736101</v>
+        <v>60301114</v>
       </c>
       <c r="K83">
-        <v>713352.7</v>
+        <v>747903.98</v>
       </c>
     </row>
     <row r="84">
@@ -3467,22 +3467,22 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>67684353</v>
+        <v>45814905</v>
       </c>
       <c r="G84">
-        <v>11.0767</v>
+        <v>10.3013</v>
       </c>
       <c r="H84">
-        <v>0.009362280000000001</v>
+        <v>0.00799148</v>
       </c>
       <c r="I84">
-        <v>2.07028</v>
+        <v>2.46359</v>
       </c>
       <c r="J84">
-        <v>22282412</v>
+        <v>25240222</v>
       </c>
       <c r="K84">
-        <v>256920.54</v>
+        <v>342174.33</v>
       </c>
     </row>
     <row r="85">
@@ -3504,22 +3504,22 @@
         <v>3</v>
       </c>
       <c r="F85">
-        <v>41852572</v>
+        <v>19911709</v>
       </c>
       <c r="G85">
-        <v>11.3261</v>
+        <v>11.252</v>
       </c>
       <c r="H85">
-        <v>0.00996287</v>
+        <v>0.0100789</v>
       </c>
       <c r="I85">
-        <v>2.00854</v>
+        <v>2.24804</v>
       </c>
       <c r="J85">
-        <v>14590894</v>
+        <v>15068065</v>
       </c>
       <c r="K85">
-        <v>176997.06</v>
+        <v>215719.69</v>
       </c>
     </row>
     <row r="86">
@@ -3541,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>136291080</v>
+        <v>146571380</v>
       </c>
       <c r="G86">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H86">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I86">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3578,22 +3578,22 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>182413320</v>
+        <v>157579730</v>
       </c>
       <c r="G87">
-        <v>10.7097</v>
+        <v>10.0842</v>
       </c>
       <c r="H87">
-        <v>0.00823112</v>
+        <v>0.00687966</v>
       </c>
       <c r="I87">
-        <v>1.83546</v>
+        <v>1.87932</v>
       </c>
       <c r="J87">
-        <v>123117980</v>
+        <v>138842180</v>
       </c>
       <c r="K87">
-        <v>1259821.6</v>
+        <v>1472071.1</v>
       </c>
     </row>
     <row r="88">
@@ -3615,22 +3615,22 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>30760353</v>
+        <v>17442612</v>
       </c>
       <c r="G88">
-        <v>10.4231</v>
+        <v>9.414479999999999</v>
       </c>
       <c r="H88">
-        <v>0.00791127</v>
+        <v>0.00562198</v>
       </c>
       <c r="I88">
-        <v>2.18118</v>
+        <v>1.89726</v>
       </c>
       <c r="J88">
-        <v>20504671</v>
+        <v>10488137</v>
       </c>
       <c r="K88">
-        <v>229198.9</v>
+        <v>106807.64</v>
       </c>
     </row>
     <row r="89">
@@ -3652,22 +3652,22 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>14198846</v>
+        <v>6286416.8</v>
       </c>
       <c r="G89">
-        <v>11.1537</v>
+        <v>10.1893</v>
       </c>
       <c r="H89">
-        <v>0.00941342</v>
+        <v>0.00699469</v>
       </c>
       <c r="I89">
-        <v>1.91337</v>
+        <v>1.71608</v>
       </c>
       <c r="J89">
-        <v>11342622</v>
+        <v>5634962.4</v>
       </c>
       <c r="K89">
-        <v>136700.35</v>
+        <v>62795.632</v>
       </c>
     </row>
     <row r="90">
@@ -3689,16 +3689,16 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1367571800</v>
+        <v>1793297500</v>
       </c>
       <c r="G90">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H90">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I90">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3726,22 +3726,22 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>553394000</v>
+        <v>507526060</v>
       </c>
       <c r="G91">
-        <v>10.5539</v>
+        <v>9.80362</v>
       </c>
       <c r="H91">
-        <v>0.00813637</v>
+        <v>0.00684074</v>
       </c>
       <c r="I91">
-        <v>2.12925</v>
+        <v>2.4371</v>
       </c>
       <c r="J91">
-        <v>204127740</v>
+        <v>205137340</v>
       </c>
       <c r="K91">
-        <v>2114040.9</v>
+        <v>2315449.2</v>
       </c>
     </row>
     <row r="92">
@@ -3763,22 +3763,22 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <v>27495261</v>
+        <v>20879377</v>
       </c>
       <c r="G92">
-        <v>10.9748</v>
+        <v>10.7348</v>
       </c>
       <c r="H92">
-        <v>0.00881851</v>
+        <v>0.00831295</v>
       </c>
       <c r="I92">
-        <v>1.76882</v>
+        <v>1.85036</v>
       </c>
       <c r="J92">
-        <v>10911549</v>
+        <v>11016190</v>
       </c>
       <c r="K92">
-        <v>112930.62</v>
+        <v>118391.66</v>
       </c>
     </row>
     <row r="93">
@@ -3800,22 +3800,22 @@
         <v>3</v>
       </c>
       <c r="F93">
-        <v>6817838.7</v>
+        <v>3566759.2</v>
       </c>
       <c r="G93">
-        <v>10.7989</v>
+        <v>10.3779</v>
       </c>
       <c r="H93">
-        <v>0.008584970000000001</v>
+        <v>0.00740891</v>
       </c>
       <c r="I93">
-        <v>1.97108</v>
+        <v>1.73086</v>
       </c>
       <c r="J93">
-        <v>2646181.1</v>
+        <v>1531940.7</v>
       </c>
       <c r="K93">
-        <v>28477.92</v>
+        <v>15270.012</v>
       </c>
     </row>
     <row r="94">
@@ -3837,16 +3837,16 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>798170310</v>
+        <v>87927153</v>
       </c>
       <c r="G94">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H94">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I94">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3874,22 +3874,22 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>410344530</v>
+        <v>373632400</v>
       </c>
       <c r="G95">
-        <v>10.5163</v>
+        <v>9.807840000000001</v>
       </c>
       <c r="H95">
-        <v>0.0081333</v>
+        <v>0.00703691</v>
       </c>
       <c r="I95">
-        <v>2.20948</v>
+        <v>2.58367</v>
       </c>
       <c r="J95">
-        <v>141072860</v>
+        <v>139364120</v>
       </c>
       <c r="K95">
-        <v>1487045.5</v>
+        <v>1708255.9</v>
       </c>
     </row>
     <row r="96">
@@ -3911,22 +3911,22 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>92425036</v>
+        <v>81303087</v>
       </c>
       <c r="G96">
-        <v>10.8066</v>
+        <v>10.407</v>
       </c>
       <c r="H96">
-        <v>0.0086347</v>
+        <v>0.0079744</v>
       </c>
       <c r="I96">
-        <v>2.01789</v>
+        <v>2.25939</v>
       </c>
       <c r="J96">
-        <v>33568874</v>
+        <v>35421848</v>
       </c>
       <c r="K96">
-        <v>359133.49</v>
+        <v>425211.23</v>
       </c>
     </row>
     <row r="97">
@@ -3948,22 +3948,22 @@
         <v>3</v>
       </c>
       <c r="F97">
-        <v>5520287.4</v>
+        <v>3281974.4</v>
       </c>
       <c r="G97">
-        <v>11.247</v>
+        <v>11.4535</v>
       </c>
       <c r="H97">
-        <v>0.00949416</v>
+        <v>0.0101798</v>
       </c>
       <c r="I97">
-        <v>1.74034</v>
+        <v>1.86387</v>
       </c>
       <c r="J97">
-        <v>2190485.3</v>
+        <v>2046246</v>
       </c>
       <c r="K97">
-        <v>24203.265</v>
+        <v>25512.924</v>
       </c>
     </row>
     <row r="98">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>72384112</v>
+        <v>8332076.3</v>
       </c>
       <c r="G98">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H98">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I98">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>519892930</v>
+        <v>568233300</v>
       </c>
       <c r="G99">
-        <v>10.5786</v>
+        <v>9.939109999999999</v>
       </c>
       <c r="H99">
-        <v>0.008382229999999999</v>
+        <v>0.00745998</v>
       </c>
       <c r="I99">
-        <v>2.30825</v>
+        <v>2.73028</v>
       </c>
       <c r="J99">
-        <v>127464680</v>
+        <v>131306650</v>
       </c>
       <c r="K99">
-        <v>1382918.1</v>
+        <v>1604344.9</v>
       </c>
     </row>
     <row r="100">
@@ -4059,22 +4059,22 @@
         <v>2</v>
       </c>
       <c r="F100">
-        <v>85281862</v>
+        <v>71054612</v>
       </c>
       <c r="G100">
-        <v>10.9519</v>
+        <v>10.6587</v>
       </c>
       <c r="H100">
-        <v>0.00906183</v>
+        <v>0.00871972</v>
       </c>
       <c r="I100">
-        <v>2.08373</v>
+        <v>2.38401</v>
       </c>
       <c r="J100">
-        <v>22422763</v>
+        <v>19203942</v>
       </c>
       <c r="K100">
-        <v>250565.95</v>
+        <v>245270.09</v>
       </c>
     </row>
     <row r="101">
@@ -4096,22 +4096,22 @@
         <v>3</v>
       </c>
       <c r="F101">
-        <v>20038910</v>
+        <v>14918469</v>
       </c>
       <c r="G101">
-        <v>11.2699</v>
+        <v>11.3356</v>
       </c>
       <c r="H101">
-        <v>0.009707550000000001</v>
+        <v>0.0101906</v>
       </c>
       <c r="I101">
-        <v>1.90596</v>
+        <v>2.16071</v>
       </c>
       <c r="J101">
-        <v>5608203.2</v>
+        <v>4985052.4</v>
       </c>
       <c r="K101">
-        <v>64448.963</v>
+        <v>65454.887</v>
       </c>
     </row>
     <row r="102">
@@ -4133,16 +4133,16 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>326802520</v>
+        <v>248371860</v>
       </c>
       <c r="G102">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H102">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I102">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>459363280</v>
+        <v>578544290</v>
       </c>
       <c r="G103">
-        <v>10.1708</v>
+        <v>9.494059999999999</v>
       </c>
       <c r="H103">
-        <v>0.00734787</v>
+        <v>0.00617214</v>
       </c>
       <c r="I103">
-        <v>2.19414</v>
+        <v>2.37081</v>
       </c>
       <c r="J103">
-        <v>324346630</v>
+        <v>331139020</v>
       </c>
       <c r="K103">
-        <v>3356384.9</v>
+        <v>3724903.5</v>
       </c>
     </row>
     <row r="104">
@@ -4207,22 +4207,22 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <v>52027559</v>
+        <v>65059907</v>
       </c>
       <c r="G104">
-        <v>10.1278</v>
+        <v>9.46612</v>
       </c>
       <c r="H104">
-        <v>0.00714254</v>
+        <v>0.00580179</v>
       </c>
       <c r="I104">
-        <v>2.06158</v>
+        <v>1.99699</v>
       </c>
       <c r="J104">
-        <v>35350278</v>
+        <v>30767835</v>
       </c>
       <c r="K104">
-        <v>351256.97</v>
+        <v>312022.65</v>
       </c>
     </row>
     <row r="105">
@@ -4244,22 +4244,22 @@
         <v>3</v>
       </c>
       <c r="F105">
-        <v>9478151.1</v>
+        <v>7442779</v>
       </c>
       <c r="G105">
-        <v>10.6508</v>
+        <v>10.3577</v>
       </c>
       <c r="H105">
-        <v>0.00813403</v>
+        <v>0.00737488</v>
       </c>
       <c r="I105">
-        <v>1.87159</v>
+        <v>1.7371</v>
       </c>
       <c r="J105">
-        <v>7385806.9</v>
+        <v>5175853</v>
       </c>
       <c r="K105">
-        <v>78031.212</v>
+        <v>55556.96</v>
       </c>
     </row>
     <row r="106">
@@ -4281,16 +4281,16 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>247712870</v>
+        <v>219624280</v>
       </c>
       <c r="G106">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H106">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I106">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>254362930</v>
+        <v>272215830</v>
       </c>
       <c r="G107">
-        <v>10.665</v>
+        <v>10.0139</v>
       </c>
       <c r="H107">
-        <v>0.00801176</v>
+        <v>0.00673853</v>
       </c>
       <c r="I107">
-        <v>1.69358</v>
+        <v>1.88067</v>
       </c>
       <c r="J107">
-        <v>199305360</v>
+        <v>194095780</v>
       </c>
       <c r="K107">
-        <v>1959710.6</v>
+        <v>1979272.1</v>
       </c>
     </row>
     <row r="108">
@@ -4355,22 +4355,22 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>50049114</v>
+        <v>70638681</v>
       </c>
       <c r="G108">
-        <v>9.923260000000001</v>
+        <v>9.48357</v>
       </c>
       <c r="H108">
-        <v>0.0066435</v>
+        <v>0.00572716</v>
       </c>
       <c r="I108">
-        <v>1.98098</v>
+        <v>1.8838</v>
       </c>
       <c r="J108">
-        <v>32281676</v>
+        <v>36872409</v>
       </c>
       <c r="K108">
-        <v>290829.36</v>
+        <v>343307.33</v>
       </c>
     </row>
     <row r="109">
@@ -4392,22 +4392,22 @@
         <v>3</v>
       </c>
       <c r="F109">
-        <v>6656981.9</v>
+        <v>8760355.199999999</v>
       </c>
       <c r="G109">
-        <v>10.064</v>
+        <v>9.86323</v>
       </c>
       <c r="H109">
-        <v>0.00680818</v>
+        <v>0.00623353</v>
       </c>
       <c r="I109">
-        <v>1.82792</v>
+        <v>1.59582</v>
       </c>
       <c r="J109">
-        <v>4373546.9</v>
+        <v>4992385.9</v>
       </c>
       <c r="K109">
-        <v>38943.491</v>
+        <v>45020.378</v>
       </c>
     </row>
     <row r="110">
@@ -4429,16 +4429,16 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>194676340</v>
+        <v>227996910</v>
       </c>
       <c r="G110">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H110">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I110">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -4466,22 +4466,22 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>450499900</v>
+        <v>364891760</v>
       </c>
       <c r="G111">
-        <v>10.7774</v>
+        <v>10.1231</v>
       </c>
       <c r="H111">
-        <v>0.00835786</v>
+        <v>0.00706111</v>
       </c>
       <c r="I111">
-        <v>1.79262</v>
+        <v>1.99146</v>
       </c>
       <c r="J111">
-        <v>172019190</v>
+        <v>167659060</v>
       </c>
       <c r="K111">
-        <v>1704562.4</v>
+        <v>1703230.3</v>
       </c>
     </row>
     <row r="112">
@@ -4503,22 +4503,22 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <v>29301190</v>
+        <v>29157892</v>
       </c>
       <c r="G112">
-        <v>10.7953</v>
+        <v>10.3219</v>
       </c>
       <c r="H112">
-        <v>0.00827024</v>
+        <v>0.00727117</v>
       </c>
       <c r="I112">
-        <v>1.6333</v>
+        <v>1.73345</v>
       </c>
       <c r="J112">
-        <v>11053074</v>
+        <v>13816664</v>
       </c>
       <c r="K112">
-        <v>104719.53</v>
+        <v>131107.02</v>
       </c>
     </row>
     <row r="113">
@@ -4540,22 +4540,22 @@
         <v>3</v>
       </c>
       <c r="F113">
-        <v>7469294.8</v>
+        <v>10127187</v>
       </c>
       <c r="G113">
-        <v>10.0566</v>
+        <v>10.0227</v>
       </c>
       <c r="H113">
-        <v>0.00677967</v>
+        <v>0.0065712</v>
       </c>
       <c r="I113">
-        <v>1.81357</v>
+        <v>1.62566</v>
       </c>
       <c r="J113">
-        <v>2340803.4</v>
+        <v>3937339.7</v>
       </c>
       <c r="K113">
-        <v>19392.851</v>
+        <v>34770.324</v>
       </c>
     </row>
     <row r="114">
@@ -4577,16 +4577,16 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>142589830</v>
+        <v>171781370</v>
       </c>
       <c r="G114">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H114">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I114">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>236716870</v>
+        <v>236105190</v>
       </c>
       <c r="G115">
-        <v>10.6771</v>
+        <v>9.93887</v>
       </c>
       <c r="H115">
-        <v>0.00801818</v>
+        <v>0.00649284</v>
       </c>
       <c r="I115">
-        <v>1.66387</v>
+        <v>1.76312</v>
       </c>
       <c r="J115">
-        <v>194995180</v>
+        <v>201036690</v>
       </c>
       <c r="K115">
-        <v>1919886.1</v>
+        <v>2026863.5</v>
       </c>
     </row>
     <row r="116">
@@ -4651,22 +4651,22 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>47160129</v>
+        <v>34466807</v>
       </c>
       <c r="G116">
-        <v>10.7666</v>
+        <v>10.1386</v>
       </c>
       <c r="H116">
-        <v>0.008263650000000001</v>
+        <v>0.00689764</v>
       </c>
       <c r="I116">
-        <v>1.71254</v>
+        <v>1.75442</v>
       </c>
       <c r="J116">
-        <v>40452243</v>
+        <v>33887137</v>
       </c>
       <c r="K116">
-        <v>412526.94</v>
+        <v>356031.42</v>
       </c>
     </row>
     <row r="117">
@@ -4688,22 +4688,22 @@
         <v>3</v>
       </c>
       <c r="F117">
-        <v>3958019.3</v>
+        <v>3463201.9</v>
       </c>
       <c r="G117">
-        <v>10.7189</v>
+        <v>10.4514</v>
       </c>
       <c r="H117">
-        <v>0.008090379999999999</v>
+        <v>0.00742053</v>
       </c>
       <c r="I117">
-        <v>1.63358</v>
+        <v>1.54575</v>
       </c>
       <c r="J117">
-        <v>3282047.9</v>
+        <v>3805635.5</v>
       </c>
       <c r="K117">
-        <v>32112.004</v>
+        <v>39702.637</v>
       </c>
     </row>
     <row r="118">
@@ -4725,16 +4725,16 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>121650890</v>
+        <v>73007263</v>
       </c>
       <c r="G118">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H118">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I118">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -4762,22 +4762,22 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>245707910</v>
+        <v>207558970</v>
       </c>
       <c r="G119">
-        <v>10.5135</v>
+        <v>9.585470000000001</v>
       </c>
       <c r="H119">
-        <v>0.00788787</v>
+        <v>0.00608962</v>
       </c>
       <c r="I119">
-        <v>1.96627</v>
+        <v>2.11444</v>
       </c>
       <c r="J119">
-        <v>183738180</v>
+        <v>180899780</v>
       </c>
       <c r="K119">
-        <v>1889686.5</v>
+        <v>1998228.5</v>
       </c>
     </row>
     <row r="120">
@@ -4799,22 +4799,22 @@
         <v>2</v>
       </c>
       <c r="F120">
-        <v>25322992</v>
+        <v>23765658</v>
       </c>
       <c r="G120">
-        <v>10.7515</v>
+        <v>10.2211</v>
       </c>
       <c r="H120">
-        <v>0.00813407</v>
+        <v>0.00695708</v>
       </c>
       <c r="I120">
-        <v>1.59058</v>
+        <v>1.60698</v>
       </c>
       <c r="J120">
-        <v>19082468</v>
+        <v>22443886</v>
       </c>
       <c r="K120">
-        <v>183924.05</v>
+        <v>217069.55</v>
       </c>
     </row>
     <row r="121">
@@ -4836,22 +4836,22 @@
         <v>3</v>
       </c>
       <c r="F121">
-        <v>5359370.9</v>
+        <v>3483967</v>
       </c>
       <c r="G121">
-        <v>10.7893</v>
+        <v>10.3549</v>
       </c>
       <c r="H121">
-        <v>0.008261620000000001</v>
+        <v>0.00721362</v>
       </c>
       <c r="I121">
-        <v>1.64209</v>
+        <v>1.55714</v>
       </c>
       <c r="J121">
-        <v>4128582.4</v>
+        <v>3605555.3</v>
       </c>
       <c r="K121">
-        <v>40784.113</v>
+        <v>36114.585</v>
       </c>
     </row>
     <row r="122">
@@ -4873,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>512972340</v>
+        <v>381054380</v>
       </c>
       <c r="G122">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H122">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I122">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -4910,22 +4910,22 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>504729020</v>
+        <v>373766990</v>
       </c>
       <c r="G123">
-        <v>11.0631</v>
+        <v>10.7191</v>
       </c>
       <c r="H123">
-        <v>0.00888244</v>
+        <v>0.00815605</v>
       </c>
       <c r="I123">
-        <v>1.56061</v>
+        <v>1.69433</v>
       </c>
       <c r="J123">
-        <v>127741480</v>
+        <v>128938380</v>
       </c>
       <c r="K123">
-        <v>1273224.7</v>
+        <v>1307281.7</v>
       </c>
     </row>
     <row r="124">
@@ -4947,22 +4947,22 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <v>41065433</v>
+        <v>31068083</v>
       </c>
       <c r="G124">
-        <v>10.812</v>
+        <v>10.1584</v>
       </c>
       <c r="H124">
-        <v>0.008513690000000001</v>
+        <v>0.00707956</v>
       </c>
       <c r="I124">
-        <v>1.87767</v>
+        <v>1.92498</v>
       </c>
       <c r="J124">
-        <v>10000325</v>
+        <v>8788576.300000001</v>
       </c>
       <c r="K124">
-        <v>100562.87</v>
+        <v>83861.708</v>
       </c>
     </row>
     <row r="125">
@@ -4984,22 +4984,22 @@
         <v>3</v>
       </c>
       <c r="F125">
-        <v>5012406.2</v>
+        <v>3438270.2</v>
       </c>
       <c r="G125">
-        <v>11.1437</v>
+        <v>10.9551</v>
       </c>
       <c r="H125">
-        <v>0.009076799999999999</v>
+        <v>0.008629899999999999</v>
       </c>
       <c r="I125">
-        <v>1.56115</v>
+        <v>1.59095</v>
       </c>
       <c r="J125">
-        <v>1294145.6</v>
+        <v>1308997</v>
       </c>
       <c r="K125">
-        <v>13050.994</v>
+        <v>13221.794</v>
       </c>
     </row>
     <row r="126">
@@ -5021,16 +5021,16 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>505933690</v>
+        <v>479379000</v>
       </c>
       <c r="G126">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H126">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I126">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -5058,22 +5058,22 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>571403710</v>
+        <v>488907290</v>
       </c>
       <c r="G127">
-        <v>10.606</v>
+        <v>9.933160000000001</v>
       </c>
       <c r="H127">
-        <v>0.008272649999999999</v>
+        <v>0.00709967</v>
       </c>
       <c r="I127">
-        <v>2.14319</v>
+        <v>2.43114</v>
       </c>
       <c r="J127">
-        <v>165283150</v>
+        <v>167892390</v>
       </c>
       <c r="K127">
-        <v>1721250.4</v>
+        <v>1897252.8</v>
       </c>
     </row>
     <row r="128">
@@ -5095,22 +5095,22 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>79042858</v>
+        <v>44236854</v>
       </c>
       <c r="G128">
-        <v>11.4265</v>
+        <v>11.4301</v>
       </c>
       <c r="H128">
-        <v>0.009785719999999999</v>
+        <v>0.009955830000000001</v>
       </c>
       <c r="I128">
-        <v>1.50454</v>
+        <v>1.68369</v>
       </c>
       <c r="J128">
-        <v>26663473</v>
+        <v>24327407</v>
       </c>
       <c r="K128">
-        <v>290120.88</v>
+        <v>286985.8</v>
       </c>
     </row>
     <row r="129">
@@ -5132,22 +5132,22 @@
         <v>3</v>
       </c>
       <c r="F129">
-        <v>7374309.5</v>
+        <v>4615016.6</v>
       </c>
       <c r="G129">
-        <v>11.1483</v>
+        <v>10.8777</v>
       </c>
       <c r="H129">
-        <v>0.009271</v>
+        <v>0.008685119999999999</v>
       </c>
       <c r="I129">
-        <v>1.78179</v>
+        <v>1.86691</v>
       </c>
       <c r="J129">
-        <v>2367493.6</v>
+        <v>2094320.3</v>
       </c>
       <c r="K129">
-        <v>25515.783</v>
+        <v>23444.794</v>
       </c>
     </row>
     <row r="130">
@@ -5169,16 +5169,16 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>289790150</v>
+        <v>418711290</v>
       </c>
       <c r="G130">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H130">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I130">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -5206,22 +5206,22 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>334380390</v>
+        <v>386445970</v>
       </c>
       <c r="G131">
-        <v>10.7505</v>
+        <v>10.2268</v>
       </c>
       <c r="H131">
-        <v>0.008258659999999999</v>
+        <v>0.00725736</v>
       </c>
       <c r="I131">
-        <v>1.74946</v>
+        <v>1.95956</v>
       </c>
       <c r="J131">
-        <v>217406080</v>
+        <v>231564360</v>
       </c>
       <c r="K131">
-        <v>2188647.3</v>
+        <v>2446588.1</v>
       </c>
     </row>
     <row r="132">
@@ -5243,22 +5243,22 @@
         <v>2</v>
       </c>
       <c r="F132">
-        <v>78189973</v>
+        <v>65789577</v>
       </c>
       <c r="G132">
-        <v>10.6328</v>
+        <v>10.1633</v>
       </c>
       <c r="H132">
-        <v>0.00821125</v>
+        <v>0.00730685</v>
       </c>
       <c r="I132">
-        <v>2.0082</v>
+        <v>2.13449</v>
       </c>
       <c r="J132">
-        <v>51367436</v>
+        <v>40771105</v>
       </c>
       <c r="K132">
-        <v>550863.59</v>
+        <v>475522.86</v>
       </c>
     </row>
     <row r="133">
@@ -5280,22 +5280,22 @@
         <v>3</v>
       </c>
       <c r="F133">
-        <v>10409821</v>
+        <v>4188075.7</v>
       </c>
       <c r="G133">
-        <v>11.597</v>
+        <v>11.8406</v>
       </c>
       <c r="H133">
-        <v>0.010224</v>
+        <v>0.0111275</v>
       </c>
       <c r="I133">
-        <v>1.47032</v>
+        <v>1.69152</v>
       </c>
       <c r="J133">
-        <v>8565727</v>
+        <v>5003776.5</v>
       </c>
       <c r="K133">
-        <v>100274.8</v>
+        <v>67141.344</v>
       </c>
     </row>
     <row r="134">
@@ -5317,16 +5317,16 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>299959050</v>
+        <v>145691070</v>
       </c>
       <c r="G134">
-        <v>10.2411</v>
+        <v>9.66986</v>
       </c>
       <c r="H134">
-        <v>0.00791215</v>
+        <v>0.00674529</v>
       </c>
       <c r="I134">
-        <v>2.58956</v>
+        <v>2.60456</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -5354,22 +5354,22 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>582645370</v>
+        <v>291848330</v>
       </c>
       <c r="G135">
-        <v>11.0051</v>
+        <v>10.3663</v>
       </c>
       <c r="H135">
-        <v>0.008753739999999999</v>
+        <v>0.0074199</v>
       </c>
       <c r="I135">
-        <v>1.58428</v>
+        <v>1.78531</v>
       </c>
       <c r="J135">
-        <v>193561130</v>
+        <v>175355350</v>
       </c>
       <c r="K135">
-        <v>1923997.4</v>
+        <v>1798186</v>
       </c>
     </row>
     <row r="136">
@@ -5391,22 +5391,22 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>45235499</v>
+        <v>45146347</v>
       </c>
       <c r="G136">
-        <v>10.9456</v>
+        <v>10.6239</v>
       </c>
       <c r="H136">
-        <v>0.00866944</v>
+        <v>0.008039960000000001</v>
       </c>
       <c r="I136">
-        <v>1.67535</v>
+        <v>1.83235</v>
       </c>
       <c r="J136">
-        <v>14899249</v>
+        <v>31506906</v>
       </c>
       <c r="K136">
-        <v>148050.98</v>
+        <v>342922.01</v>
       </c>
     </row>
     <row r="137">
@@ -5428,22 +5428,22 @@
         <v>3</v>
       </c>
       <c r="F137">
-        <v>11961791</v>
+        <v>8288173.5</v>
       </c>
       <c r="G137">
-        <v>10.8214</v>
+        <v>10.5102</v>
       </c>
       <c r="H137">
-        <v>0.008525039999999999</v>
+        <v>0.00781423</v>
       </c>
       <c r="I137">
-        <v>1.85938</v>
+        <v>1.85257</v>
       </c>
       <c r="J137">
-        <v>3883334.4</v>
+        <v>5481453.3</v>
       </c>
       <c r="K137">
-        <v>39563.04</v>
+        <v>61455.215</v>
       </c>
     </row>
     <row r="138">
@@ -5502,22 +5502,22 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>201465790</v>
+        <v>598705140</v>
       </c>
       <c r="G139">
-        <v>10.5188</v>
+        <v>9.69547</v>
       </c>
       <c r="H139">
-        <v>0.00784022</v>
+        <v>0.00688391</v>
       </c>
       <c r="I139">
-        <v>1.89767</v>
+        <v>2.65861</v>
       </c>
       <c r="J139">
-        <v>155715320</v>
+        <v>205376880</v>
       </c>
       <c r="K139">
-        <v>1575525.2</v>
+        <v>2476974.4</v>
       </c>
     </row>
     <row r="140">
@@ -5539,22 +5539,22 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <v>65122748</v>
+        <v>29639360</v>
       </c>
       <c r="G140">
-        <v>11.1491</v>
+        <v>10.715</v>
       </c>
       <c r="H140">
-        <v>0.00905458</v>
+        <v>0.008082239999999999</v>
       </c>
       <c r="I140">
-        <v>1.50563</v>
+        <v>1.62578</v>
       </c>
       <c r="J140">
-        <v>58472616</v>
+        <v>12313090</v>
       </c>
       <c r="K140">
-        <v>623626.8100000001</v>
+        <v>121234.78</v>
       </c>
     </row>
     <row r="141">
@@ -5576,22 +5576,22 @@
         <v>3</v>
       </c>
       <c r="F141">
-        <v>6497580.9</v>
+        <v>4971130.4</v>
       </c>
       <c r="G141">
-        <v>11.0056</v>
+        <v>10.8142</v>
       </c>
       <c r="H141">
-        <v>0.00879777</v>
+        <v>0.008342280000000001</v>
       </c>
       <c r="I141">
-        <v>1.64958</v>
+        <v>1.65413</v>
       </c>
       <c r="J141">
-        <v>5678165.6</v>
+        <v>2176132.5</v>
       </c>
       <c r="K141">
-        <v>60373.574</v>
+        <v>22241.594</v>
       </c>
     </row>
   </sheetData>
